--- a/data/loop/group3/0.1/DNN/schedule/5.xlsx
+++ b/data/loop/group3/0.1/DNN/schedule/5.xlsx
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3886580467224121</v>
+        <v>0.3902289867401123</v>
       </c>
       <c r="G2" t="n">
         <v>0.06744090249261438</v>
       </c>
       <c r="H2" t="n">
-        <v>38.1512667811521</v>
+        <v>37.99768169713992</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -503,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3887360095977783</v>
+        <v>0.3896760940551758</v>
       </c>
       <c r="G3" t="n">
         <v>0.06930146467117129</v>
       </c>
       <c r="H3" t="n">
-        <v>37.11955954317765</v>
+        <v>37.03000947448127</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3962390422821045</v>
+        <v>0.3998570442199707</v>
       </c>
       <c r="G4" t="n">
         <v>0.06886069407229656</v>
       </c>
       <c r="H4" t="n">
-        <v>36.64977720678437</v>
+        <v>36.3181612783588</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -585,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4050390720367432</v>
+        <v>0.4062590599060059</v>
       </c>
       <c r="G5" t="n">
         <v>0.06898874643342168</v>
       </c>
       <c r="H5" t="n">
-        <v>35.78696157374215</v>
+        <v>35.67949404056803</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -626,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.391916036605835</v>
+        <v>0.3927309513092041</v>
       </c>
       <c r="G6" t="n">
         <v>0.07261773087655857</v>
       </c>
       <c r="H6" t="n">
-        <v>35.13696866365403</v>
+        <v>35.06405963445636</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -663,13 +663,13 @@
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="n">
-        <v>0.4002411365509033</v>
+        <v>0.4022591114044189</v>
       </c>
       <c r="G7" t="n">
         <v>0.07137117871548129</v>
       </c>
       <c r="H7" t="n">
-        <v>35.00704135087847</v>
+        <v>34.83142487100456</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3912858963012695</v>
+        <v>0.3948590755462646</v>
       </c>
       <c r="G8" t="n">
         <v>0.07555286585601181</v>
       </c>
       <c r="H8" t="n">
-        <v>33.82632858046031</v>
+        <v>33.52022561182302</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3959939479827881</v>
+        <v>0.3962569236755371</v>
       </c>
       <c r="G9" t="n">
         <v>0.07547480199887209</v>
       </c>
       <c r="H9" t="n">
-        <v>33.45873128611267</v>
+        <v>33.43652641721889</v>
       </c>
       <c r="I9" t="n">
         <v>27</v>
@@ -782,13 +782,13 @@
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="n">
-        <v>0.3881959915161133</v>
+        <v>0.3930368423461914</v>
       </c>
       <c r="G10" t="n">
         <v>0.081152802492968</v>
       </c>
       <c r="H10" t="n">
-        <v>31.74281450791785</v>
+        <v>31.35185311854173</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -816,20 +816,16 @@
       <c r="C11" t="n">
         <v>219</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
       <c r="F11" t="n">
-        <v>0.523306131362915</v>
+        <v>0.528548002243042</v>
       </c>
       <c r="G11" t="n">
         <v>0.06876039506264525</v>
       </c>
       <c r="H11" t="n">
-        <v>27.7911049008355</v>
+        <v>27.51548682473263</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -837,15 +833,9 @@
       <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -857,20 +847,16 @@
       <c r="C12" t="n">
         <v>38</v>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.5194029808044434</v>
+        <v>0.5203421115875244</v>
       </c>
       <c r="G12" t="n">
         <v>0.07163263048436899</v>
       </c>
       <c r="H12" t="n">
-        <v>26.87723959223277</v>
+        <v>26.82873065454887</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
@@ -878,15 +864,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -898,20 +878,16 @@
       <c r="C13" t="n">
         <v>271</v>
       </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.5259659290313721</v>
+        <v>0.5276229381561279</v>
       </c>
       <c r="G13" t="n">
         <v>0.07454049322764522</v>
       </c>
       <c r="H13" t="n">
-        <v>25.50645634321675</v>
+        <v>25.42635286809378</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -919,15 +895,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -939,20 +909,16 @@
       <c r="C14" t="n">
         <v>32</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.5249598026275635</v>
+        <v>0.5306520462036133</v>
       </c>
       <c r="G14" t="n">
         <v>0.07492390671174114</v>
       </c>
       <c r="H14" t="n">
-        <v>25.42456527347341</v>
+        <v>25.15183888075116</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -960,15 +926,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -980,20 +940,16 @@
       <c r="C15" t="n">
         <v>156</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
       <c r="F15" t="n">
-        <v>0.5214531421661377</v>
+        <v>0.5240509510040283</v>
       </c>
       <c r="G15" t="n">
         <v>0.07833041279070241</v>
       </c>
       <c r="H15" t="n">
-        <v>24.48241729139797</v>
+        <v>24.36105382494367</v>
       </c>
       <c r="I15" t="n">
         <v>7</v>
@@ -1001,15 +957,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1021,20 +971,16 @@
       <c r="C16" t="n">
         <v>91</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5209181308746338</v>
+        <v>0.5233850479125977</v>
       </c>
       <c r="G16" t="n">
         <v>0.07907055956766705</v>
       </c>
       <c r="H16" t="n">
-        <v>24.27815692371645</v>
+        <v>24.16372453936702</v>
       </c>
       <c r="I16" t="n">
         <v>14</v>
@@ -1042,15 +988,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1062,20 +1002,16 @@
       <c r="C17" t="n">
         <v>80</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5568859577178955</v>
+        <v>0.5625960826873779</v>
       </c>
       <c r="G17" t="n">
         <v>0.07409850176265462</v>
       </c>
       <c r="H17" t="n">
-        <v>24.23395550627966</v>
+        <v>23.98799056143907</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1083,15 +1019,9 @@
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1103,20 +1033,16 @@
       <c r="C18" t="n">
         <v>218</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5251181125640869</v>
+        <v>0.5275909900665283</v>
       </c>
       <c r="G18" t="n">
         <v>0.07902781454758215</v>
       </c>
       <c r="H18" t="n">
-        <v>24.09700288108422</v>
+        <v>23.98405755521089</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
@@ -1124,15 +1050,9 @@
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1142,38 +1062,28 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.8745720386505127</v>
+        <v>0.8783500194549561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07123441641396984</v>
+        <v>0.071489030648964</v>
       </c>
       <c r="H19" t="n">
-        <v>16.05146000864835</v>
+        <v>15.92549633367258</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1183,38 +1093,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>125</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.874798059463501</v>
+        <v>0.889056921005249</v>
       </c>
       <c r="G20" t="n">
-        <v>0.071489030648964</v>
+        <v>0.07064562792711275</v>
       </c>
       <c r="H20" t="n">
-        <v>15.99015894375652</v>
+        <v>15.9215426000191</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1224,38 +1124,28 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>185</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.8874120712280273</v>
+        <v>0.8899688720703125</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07064562792711275</v>
+        <v>0.07123441641396984</v>
       </c>
       <c r="H21" t="n">
-        <v>15.95105374444429</v>
+        <v>15.7737630423232</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1267,20 +1157,16 @@
       <c r="C22" t="n">
         <v>193</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.871157169342041</v>
+        <v>0.8740930557250977</v>
       </c>
       <c r="G22" t="n">
         <v>0.07256408909448228</v>
       </c>
       <c r="H22" t="n">
-        <v>15.81909874700302</v>
+        <v>15.76596587253461</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -1288,15 +1174,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1306,22 +1186,18 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>244</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.8788800239562988</v>
+        <v>0.8876419067382812</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07243982442209679</v>
+        <v>0.07214980622680565</v>
       </c>
       <c r="H23" t="n">
-        <v>15.706991816798</v>
+        <v>15.61446229467848</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1329,15 +1205,9 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1347,38 +1217,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>180</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.882655143737793</v>
+        <v>0.8825490474700928</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07214980622680565</v>
+        <v>0.0734696529127829</v>
       </c>
       <c r="H24" t="n">
-        <v>15.70267978640904</v>
+        <v>15.42244255610702</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1388,38 +1248,28 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>190</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.873978853225708</v>
+        <v>0.881397008895874</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0734696529127829</v>
+        <v>0.07536257980963955</v>
       </c>
       <c r="H25" t="n">
-        <v>15.57367427978188</v>
+        <v>15.05471959400142</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1429,38 +1279,28 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>253</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.8794350624084473</v>
+        <v>0.9178488254547119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07536257980963955</v>
+        <v>0.07243982442209679</v>
       </c>
       <c r="H26" t="n">
-        <v>15.08830542141403</v>
+        <v>15.04012530319456</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1470,22 +1310,18 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.8963310718536377</v>
+        <v>0.8722019195556641</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07402919675209287</v>
+        <v>0.07702337821827571</v>
       </c>
       <c r="H27" t="n">
-        <v>15.07052948876466</v>
+        <v>14.88539621826522</v>
       </c>
       <c r="I27" t="n">
         <v>6</v>
@@ -1493,15 +1329,9 @@
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1511,38 +1341,28 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>68</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.8649971485137939</v>
+        <v>0.8903520107269287</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07702337821827571</v>
+        <v>0.0766641559618729</v>
       </c>
       <c r="H28" t="n">
-        <v>15.00938029359355</v>
+        <v>14.65027906912137</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1552,38 +1372,28 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8799560070037842</v>
+        <v>0.9245188236236572</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0766641559618729</v>
+        <v>0.07402919675209287</v>
       </c>
       <c r="H29" t="n">
-        <v>14.82336085336451</v>
+        <v>14.61104252817792</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1595,20 +1405,16 @@
       <c r="C30" t="n">
         <v>133</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8819501399993896</v>
+        <v>0.8853030204772949</v>
       </c>
       <c r="G30" t="n">
         <v>0.07926465300941257</v>
       </c>
       <c r="H30" t="n">
-        <v>14.30462258160443</v>
+        <v>14.2504471312916</v>
       </c>
       <c r="I30" t="n">
         <v>13</v>
@@ -1616,15 +1422,9 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1636,20 +1436,16 @@
       <c r="C31" t="n">
         <v>69</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.8702638149261475</v>
+        <v>0.8752150535583496</v>
       </c>
       <c r="G31" t="n">
         <v>0.08271909969709182</v>
       </c>
       <c r="H31" t="n">
-        <v>13.89131229205477</v>
+        <v>13.81272680407354</v>
       </c>
       <c r="I31" t="n">
         <v>14</v>
@@ -1657,15 +1453,9 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
